--- a/data/lossofsale_sg_perumbavoor.xlsx
+++ b/data/lossofsale_sg_perumbavoor.xlsx
@@ -208,10 +208,10 @@
     <col min="5" max="5" width="17.55" customWidth="1"/>
     <col min="6" max="6" width="16.200000000000003" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
-    <col min="8" max="8" width="22.950000000000003" customWidth="1"/>
+    <col min="8" max="8" width="10.8" customWidth="1"/>
     <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="36.45" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">01-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Job</t>
+          <t xml:space="preserve">nahar</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9656371098</v>
+        <v>8136863437</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">BEN BABY</t>
+          <t xml:space="preserve">VARGHESE JOY</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,219 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">With Trial &amp; Talk to Family</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="65">
-        <v>2</v>
-      </c>
-      <c t="inlineStr" r="B4">
-        <is>
-          <t xml:space="preserve">01-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C4">
-        <is>
-          <t xml:space="preserve">sachin</t>
-        </is>
-      </c>
-      <c r="D4" s="65">
-        <v>8086461608</v>
-      </c>
-      <c t="inlineStr" r="E4">
-        <is>
-          <t xml:space="preserve">28-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F4">
-        <is>
-          <t xml:space="preserve">BEN BABY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G4">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H4">
-        <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I4">
-        <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J4">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K4">
-        <is>
-          <t xml:space="preserve">Size and colour issue</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="65">
-        <v>3</v>
-      </c>
-      <c t="inlineStr" r="B5">
-        <is>
-          <t xml:space="preserve">02-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C5">
-        <is>
-          <t xml:space="preserve">athil</t>
-        </is>
-      </c>
-      <c r="D5" s="65">
-        <v>7560825359</v>
-      </c>
-      <c t="inlineStr" r="E5">
-        <is>
-          <t xml:space="preserve">14-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F5">
-        <is>
-          <t xml:space="preserve">VARGHESE JOY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G5">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H5">
-        <is>
-          <t xml:space="preserve">ENQUIRY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I5">
-        <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J5">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K5">
-        <is>
-          <t xml:space="preserve">enq</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="65">
-        <v>4</v>
-      </c>
-      <c t="inlineStr" r="B6">
-        <is>
-          <t xml:space="preserve">03-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C6">
-        <is>
-          <t xml:space="preserve">jilfar</t>
-        </is>
-      </c>
-      <c r="D6" s="65">
-        <v>9495681191</v>
-      </c>
-      <c t="inlineStr" r="E6">
-        <is>
-          <t xml:space="preserve">14-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F6">
-        <is>
-          <t xml:space="preserve">VARGHESE JOY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G6">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H6">
-        <is>
-          <t xml:space="preserve">PRODUCT</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I6">
-        <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J6">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K6">
-        <is>
-          <t xml:space="preserve">enq</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="65">
-        <v>5</v>
-      </c>
-      <c t="inlineStr" r="B7">
-        <is>
-          <t xml:space="preserve">03-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C7">
-        <is>
-          <t xml:space="preserve">jismon</t>
-        </is>
-      </c>
-      <c r="D7" s="65">
-        <v>9645516125</v>
-      </c>
-      <c t="inlineStr" r="E7">
-        <is>
-          <t xml:space="preserve">19-01-2026</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F7">
-        <is>
-          <t xml:space="preserve">VARGHESE JOY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G7">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H7">
-        <is>
-          <t xml:space="preserve">ENQUIRY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I7">
-        <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J7">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K7">
-        <is>
-          <t xml:space="preserve">enq</t>
+          <t xml:space="preserve">colour and size</t>
         </is>
       </c>
     </row>
